--- a/plan/conflict.xlsx
+++ b/plan/conflict.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13065"/>
+    <workbookView windowWidth="28800" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>空闲</t>
+  </si>
+  <si>
+    <t>跳完等结果</t>
   </si>
   <si>
     <t>0=切换并保存</t>
@@ -31,7 +34,7 @@
     <t>fly</t>
   </si>
   <si>
-    <t>ready</t>
+    <t>waitResult</t>
   </si>
   <si>
     <t>1=切换并重置</t>
@@ -47,10 +50,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +62,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -66,9 +100,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,93 +161,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,35 +201,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,187 +215,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,6 +406,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -431,80 +501,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -515,148 +511,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -733,7 +729,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="AFDCB5"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1015,11 +1011,13 @@
   <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1027,30 +1025,33 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="3:7">
       <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1065,12 +1066,12 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1087,7 +1088,7 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1104,7 +1105,7 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2</v>

--- a/plan/conflict.xlsx
+++ b/plan/conflict.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>空闲</t>
   </si>
@@ -37,6 +37,9 @@
     <t>waitResult</t>
   </si>
   <si>
+    <t>finish</t>
+  </si>
+  <si>
     <t>1=切换并重置</t>
   </si>
   <si>
@@ -48,9 +51,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -62,6 +65,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -70,9 +155,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -86,42 +171,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -130,16 +179,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,60 +195,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,19 +218,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,55 +356,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,103 +386,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,6 +409,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -420,30 +458,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,19 +480,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,8 +504,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,145 +517,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1008,31 +1011,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G6"/>
+  <dimension ref="B1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7">
+    <row r="1" spans="3:8">
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="3:7">
+    <row r="2" spans="3:8">
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -1048,8 +1051,11 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:8">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1065,11 +1071,14 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:7">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1085,8 +1094,11 @@
       <c r="F4">
         <v>2</v>
       </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -1102,8 +1114,11 @@
       <c r="F5">
         <v>2</v>
       </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:7">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -1114,9 +1129,32 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>2</v>
       </c>
     </row>

--- a/plan/conflict.xlsx
+++ b/plan/conflict.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12150"/>
+    <workbookView windowWidth="28800" windowHeight="12150" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="action" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>空闲</t>
   </si>
@@ -44,6 +45,18 @@
   </si>
   <si>
     <t>2=不能切换</t>
+  </si>
+  <si>
+    <t>没道具</t>
+  </si>
+  <si>
+    <t>平板变小</t>
+  </si>
+  <si>
+    <t>noItem</t>
+  </si>
+  <si>
+    <t>flatNarrow</t>
   </si>
 </sst>
 </file>
@@ -51,9 +64,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -65,6 +78,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -73,32 +174,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -110,15 +190,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -127,83 +208,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,181 +237,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,11 +442,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,8 +452,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,6 +469,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,9 +499,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,15 +522,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -517,10 +530,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,133 +542,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,8 +1026,8 @@
   <sheetPr/>
   <dimension ref="B1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1163,4 +1176,59 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="3:4">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>